--- a/src/test/resources/data/mergetest.xlsx
+++ b/src/test/resources/data/mergetest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>成绩表</t>
   </si>
@@ -39,10 +39,16 @@
     <t>备注1</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>备注2</t>
   </si>
   <si>
-    <t>类别</t>
+    <t>类别1</t>
+  </si>
+  <si>
+    <t>类别2</t>
   </si>
   <si>
     <t>平均</t>
@@ -66,22 +72,22 @@
     <t>男</t>
   </si>
   <si>
+    <t>好</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
     <t>英语</t>
   </si>
   <si>
+    <t>语文</t>
+  </si>
+  <si>
     <t>优秀</t>
   </si>
   <si>
     <t>王五</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>好</t>
   </si>
   <si>
     <t>良好</t>
@@ -258,8 +264,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -874,16 +880,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,19 +1240,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="5" max="5" width="12.8181818181818"/>
-    <col min="6" max="6" width="15.1818181818182"/>
+    <col min="7" max="7" width="12.8181818181818"/>
+    <col min="8" max="8" width="15.1818181818182"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +1264,11 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1271,1213 +1280,1595 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5">
         <v>85</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>93</v>
+      </c>
+      <c r="G5" s="4">
         <f>D5/3</f>
         <v>28.3333333333333</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="6"/>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>92</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <f>D6/3</f>
         <v>30.6666666666667</v>
       </c>
-      <c r="F6" s="6">
+      <c r="H6" s="6">
         <v>45123</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:E38" si="0">D7/3</f>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>90</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:G38" si="0">D7/3</f>
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="H7" s="6">
         <v>45124</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <v>94</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>31.3333333333333</v>
       </c>
-      <c r="F8" s="6">
+      <c r="H8" s="6">
         <v>45125</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
         <v>88</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <v>87</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>29.3333333333333</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="6">
         <v>45126</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4">
         <v>79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>92</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>26.3333333333333</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H10" s="6">
         <v>45127</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>96</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>86</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F11" s="6">
+      <c r="H11" s="6">
         <v>45128</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4">
         <v>82</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>27.3333333333333</v>
       </c>
-      <c r="F12" s="6">
+      <c r="H12" s="6">
         <v>45129</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>90</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>88</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F13" s="6">
+      <c r="H13" s="6">
         <v>45130</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4">
         <v>87</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>91</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F14" s="6">
+      <c r="H14" s="6">
         <v>45131</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4">
         <v>83</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4">
+        <v>85</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>27.6666666666667</v>
       </c>
-      <c r="F15" s="6">
+      <c r="H15" s="6">
         <v>45132</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4">
         <v>91</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4">
+        <v>89</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>30.3333333333333</v>
       </c>
-      <c r="F16" s="6">
+      <c r="H16" s="6">
         <v>45133</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>89</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <v>93</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>29.6666666666667</v>
       </c>
-      <c r="F17" s="6">
+      <c r="H17" s="6">
         <v>45134</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4">
         <v>83</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>27.6666666666667</v>
       </c>
-      <c r="F18" s="6">
+      <c r="H18" s="6">
         <v>45135</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4">
         <v>92</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>90</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>30.6666666666667</v>
       </c>
-      <c r="F19" s="6">
+      <c r="H19" s="6">
         <v>45136</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>86</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>28.6666666666667</v>
       </c>
-      <c r="F20" s="6">
+      <c r="H20" s="6">
         <v>45137</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>90</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="4">
+        <v>87</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F21" s="6">
+      <c r="H21" s="6">
         <v>45138</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <v>88</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>29.3333333333333</v>
       </c>
-      <c r="F22" s="6">
+      <c r="H22" s="6">
         <v>45139</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>92</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4">
+        <v>92</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>30.6666666666667</v>
       </c>
-      <c r="F23" s="6">
+      <c r="H23" s="6">
         <v>45140</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="4">
         <v>84</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4">
+        <v>84</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F24" s="6">
+      <c r="H24" s="6">
         <v>45141</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4">
         <v>89</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4">
+        <v>89</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>29.6666666666667</v>
       </c>
-      <c r="F25" s="6">
+      <c r="H25" s="6">
         <v>45142</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>87</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="4">
+        <v>96</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F26" s="6">
+      <c r="H26" s="6">
         <v>45143</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4">
         <v>91</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4">
+        <v>82</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>30.3333333333333</v>
       </c>
-      <c r="F27" s="6">
+      <c r="H27" s="6">
         <v>45144</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4">
         <v>85</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4">
+        <v>90</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>28.3333333333333</v>
       </c>
-      <c r="F28" s="6">
+      <c r="H28" s="6">
         <v>45145</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4">
         <v>89</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4">
+        <v>87</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>29.6666666666667</v>
       </c>
-      <c r="F29" s="6">
+      <c r="H29" s="6">
         <v>45146</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4">
         <v>93</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4">
+        <v>83</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F30" s="6">
+      <c r="H30" s="6">
         <v>45147</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" s="4">
         <v>88</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4">
+        <v>91</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>29.3333333333333</v>
       </c>
-      <c r="F31" s="6">
+      <c r="H31" s="6">
         <v>45148</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4">
         <v>90</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4">
+        <v>89</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F32" s="6">
+      <c r="H32" s="6">
         <v>45149</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4">
         <v>84</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4">
+        <v>83</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F33" s="6">
+      <c r="H33" s="6">
         <v>45150</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" s="4">
         <v>87</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="4">
+        <v>92</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F34" s="6">
+      <c r="H34" s="6">
         <v>45151</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4">
         <v>92</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="4">
+        <v>86</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="0"/>
         <v>30.6666666666667</v>
       </c>
-      <c r="F35" s="6">
+      <c r="H35" s="6">
         <v>45152</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4">
         <v>86</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4">
+        <v>90</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="0"/>
         <v>28.6666666666667</v>
       </c>
-      <c r="F36" s="6">
+      <c r="H36" s="6">
         <v>45153</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" s="4">
         <v>90</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="4">
+        <v>88</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F37" s="6">
+      <c r="H37" s="6">
         <v>45154</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D38" s="4">
         <v>88</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4">
+        <v>92</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="0"/>
         <v>29.3333333333333</v>
       </c>
-      <c r="F38" s="6">
+      <c r="H38" s="6">
         <v>45155</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="4">
         <v>91</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:E56" si="1">D39/3</f>
+      <c r="E39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="4">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" ref="G39:G56" si="1">D39/3</f>
         <v>30.3333333333333</v>
       </c>
-      <c r="F39" s="6">
+      <c r="H39" s="6">
         <v>45156</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D40" s="4">
         <v>85</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="4">
+        <v>89</v>
+      </c>
+      <c r="G40" s="4">
         <f t="shared" si="1"/>
         <v>28.3333333333333</v>
       </c>
-      <c r="F40" s="6">
+      <c r="H40" s="6">
         <v>45157</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" s="4">
         <v>89</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="4">
+        <v>89</v>
+      </c>
+      <c r="G41" s="4">
         <f t="shared" si="1"/>
         <v>29.6666666666667</v>
       </c>
-      <c r="F41" s="6">
+      <c r="H41" s="6">
         <v>45158</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="4">
         <v>93</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="4">
+        <v>93</v>
+      </c>
+      <c r="G42" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F42" s="6">
+      <c r="H42" s="6">
         <v>45159</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" s="4">
         <v>88</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="4">
+        <v>88</v>
+      </c>
+      <c r="G43" s="4">
         <f t="shared" si="1"/>
         <v>29.3333333333333</v>
       </c>
-      <c r="F43" s="6">
+      <c r="H43" s="6">
         <v>45160</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D44" s="4">
         <v>90</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="4">
+        <v>90</v>
+      </c>
+      <c r="G44" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F44" s="6">
+      <c r="H44" s="6">
         <v>45161</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="4">
         <v>84</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="4">
+        <v>84</v>
+      </c>
+      <c r="G45" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F45" s="6">
+      <c r="H45" s="6">
         <v>45162</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="4">
         <v>87</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="4">
+        <v>87</v>
+      </c>
+      <c r="G46" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="F46" s="6">
+      <c r="H46" s="6">
         <v>45163</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47" s="4">
         <v>92</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="4">
+        <v>92</v>
+      </c>
+      <c r="G47" s="4">
         <f t="shared" si="1"/>
         <v>30.6666666666667</v>
       </c>
-      <c r="F47" s="6">
+      <c r="H47" s="6">
         <v>45164</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" s="4">
         <v>86</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="4">
+        <v>86</v>
+      </c>
+      <c r="G48" s="4">
         <f t="shared" si="1"/>
         <v>28.6666666666667</v>
       </c>
-      <c r="F48" s="6">
+      <c r="H48" s="6">
         <v>45165</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="4">
         <v>90</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="4">
+        <v>90</v>
+      </c>
+      <c r="G49" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F49" s="6">
+      <c r="H49" s="6">
         <v>45166</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" s="4">
         <v>88</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="4">
+        <v>88</v>
+      </c>
+      <c r="G50" s="4">
         <f t="shared" si="1"/>
         <v>29.3333333333333</v>
       </c>
-      <c r="F50" s="6">
+      <c r="H50" s="6">
         <v>45167</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D51" s="4">
         <v>91</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4">
+        <v>91</v>
+      </c>
+      <c r="G51" s="4">
         <f t="shared" si="1"/>
         <v>30.3333333333333</v>
       </c>
-      <c r="F51" s="6">
+      <c r="H51" s="6">
         <v>45168</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" s="4">
         <v>89</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="4">
+        <v>89</v>
+      </c>
+      <c r="G52" s="4">
         <f t="shared" si="1"/>
         <v>29.6666666666667</v>
       </c>
-      <c r="F52" s="6">
+      <c r="H52" s="6">
         <v>45169</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D53" s="4">
         <v>83</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="4">
+        <v>83</v>
+      </c>
+      <c r="G53" s="4">
         <f t="shared" si="1"/>
         <v>27.6666666666667</v>
       </c>
-      <c r="F53" s="6">
+      <c r="H53" s="6">
         <v>45170</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" s="4">
         <v>92</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="4">
+        <v>92</v>
+      </c>
+      <c r="G54" s="4">
         <f t="shared" si="1"/>
         <v>30.6666666666667</v>
       </c>
-      <c r="F54" s="6">
+      <c r="H54" s="6">
         <v>45171</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" s="4">
         <v>86</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="4">
+        <v>86</v>
+      </c>
+      <c r="G55" s="4">
         <f t="shared" si="1"/>
         <v>28.6666666666667</v>
       </c>
-      <c r="F55" s="6">
+      <c r="H55" s="6">
         <v>45172</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2"/>
       <c r="B56" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" s="4">
         <v>90</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="4">
+        <v>90</v>
+      </c>
+      <c r="G56" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F56" s="6">
+      <c r="H56" s="6">
         <v>45173</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2486,8 +2877,11 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2496,23 +2890,28 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A21"/>
     <mergeCell ref="A22:A36"/>
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="A46:A56"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
